--- a/Finflux Automation Excels/Client/4926-FLAT-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4926-FLAT-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t> </t>
   </si>
   <si>
-    <t>Interest</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>Interest(%)</t>
   </si>
 </sst>
 </file>
@@ -253,14 +253,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,67 +596,69 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>14</v>
@@ -668,7 +670,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>41897</v>
       </c>
       <c r="D2" s="8"/>
@@ -701,10 +703,10 @@
       <c r="B3" s="8">
         <v>47</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>41944</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>41974</v>
       </c>
       <c r="E3" s="8"/>
@@ -750,10 +752,10 @@
       <c r="B4" s="8">
         <v>30</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>41974</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>41988</v>
       </c>
       <c r="E4" s="8"/>
@@ -799,10 +801,10 @@
       <c r="B5" s="8">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>42005</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>42036</v>
       </c>
       <c r="E5" s="8"/>
@@ -848,10 +850,10 @@
       <c r="B6" s="8">
         <v>31</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>42036</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>42078</v>
       </c>
       <c r="E6" s="8"/>
@@ -897,10 +899,10 @@
       <c r="B7" s="8">
         <v>28</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>42064</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>42095</v>
       </c>
       <c r="E7" s="8"/>
@@ -946,7 +948,7 @@
       <c r="B8" s="8">
         <v>31</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>42095</v>
       </c>
       <c r="D8" s="8"/>
@@ -970,7 +972,7 @@
         <v>1776.09</v>
       </c>
       <c r="L8" s="7">
-        <v>1444.08</v>
+        <v>1443.09</v>
       </c>
       <c r="M8" s="8">
         <v>0</v>
@@ -983,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="8">
-        <v>332.01</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -995,70 +997,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10">
-        <v>42095</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1723.99</v>
+      <c r="E2" s="10">
+        <v>1723</v>
       </c>
       <c r="F2" s="7">
-        <v>1623.46</v>
+        <v>1622.47</v>
       </c>
       <c r="G2" s="8">
         <v>100.53</v>
@@ -1070,26 +1074,26 @@
         <v>0</v>
       </c>
       <c r="J2" s="8">
-        <v>332.01</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42078</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10">
-        <v>42078</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1900</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>1900</v>
       </c>
       <c r="G3" s="8">
@@ -1107,16 +1111,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9">
         <v>42052</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8">
         <v>100.53</v>
@@ -1139,18 +1143,18 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1900</v>
       </c>
       <c r="F5" s="7">
@@ -1171,16 +1175,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42019</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>42019</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="8">
         <v>700</v>
@@ -1203,18 +1207,18 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9">
+        <v>41988</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="10">
-        <v>41988</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>1000</v>
       </c>
       <c r="F7" s="8">
@@ -1235,18 +1239,18 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9">
+        <v>41974</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="10">
-        <v>41974</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>1500</v>
       </c>
       <c r="F8" s="7">
@@ -1267,18 +1271,18 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9">
+        <v>41959</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="10">
-        <v>41959</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1500</v>
       </c>
       <c r="F9" s="7">
@@ -1299,16 +1303,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9">
+        <v>41944</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="10">
-        <v>41944</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="7">
         <v>1776.08</v>
@@ -1331,16 +1335,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9">
         <v>41897</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8">
         <v>53.33</v>
@@ -1363,16 +1367,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9">
         <v>41897</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="8">
         <v>200</v>
@@ -1389,24 +1393,24 @@
       <c r="I12" s="8">
         <v>0</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
         <v>41897</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="11">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10">
         <v>10000</v>
       </c>
       <c r="F13" s="8">
@@ -1421,7 +1425,7 @@
       <c r="I13" s="8">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>10000</v>
       </c>
     </row>
@@ -1588,7 +1592,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>42021</v>
+        <v>42052</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1745,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1723.99</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,19 +1795,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1828,14 +1833,14 @@
         <v>10053.33</v>
       </c>
       <c r="B2" s="7">
-        <v>9721.32</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
+        <v>9720.33</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>332.01</v>
+        <v>333</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
